--- a/PFOA inhalation Rat/Scenarios/Final_results_plots/validation/Raw_data/Hinderliter_2006/Hinderliter_2006_female_plasma_repeated_Medium_dose.xlsx
+++ b/PFOA inhalation Rat/Scenarios/Final_results_plots/validation/Raw_data/Hinderliter_2006/Hinderliter_2006_female_plasma_repeated_Medium_dose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Desktop\Rat inhalation PBK\Data\Hinderliter et al., 2006\repeated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eviepapakyriakopoulou/Documents/GitHub/PFAS_PBK_models/PFOA inhalation Rat/Scenarios/Final_results_plots/validation/Raw_data/Hinderliter_2006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32C170-5F5D-4143-8BB1-5FFCD1B646F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724C83F7-9316-9846-AB1E-9853A9CF4E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21210" yWindow="1635" windowWidth="17280" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="10">
   <si>
     <t>Tissue</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>before daily exposure</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -394,21 +397,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +430,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -447,7 +450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -467,7 +470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -487,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -507,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -527,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -567,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -587,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -607,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -627,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -687,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -707,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -765,6 +768,11 @@
       </c>
       <c r="F18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
